--- a/src/test/resources/template/测试混合.xlsx
+++ b/src/test/resources/template/测试混合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800"/>
+    <workbookView windowHeight="15860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>名称：≮name≯2≮city≯</t>
   </si>
@@ -38,10 +38,16 @@
     <t>年龄</t>
   </si>
   <si>
+    <t>固定</t>
+  </si>
+  <si>
     <t>≮list[].name≯</t>
   </si>
   <si>
     <t>≮list[].age≯</t>
+  </si>
+  <si>
+    <t>固定的值</t>
   </si>
 </sst>
 </file>
@@ -672,8 +678,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -998,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="19.8653846153846" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
@@ -1015,20 +1024,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
